--- a/results/2018年第2季.xlsx
+++ b/results/2018年第2季.xlsx
@@ -590,22 +590,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>14,367,993</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>5,313,373</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>4,125,212</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>3,499,919</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -746,22 +746,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>736,020</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>638,740</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>231,932</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>239,780</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -824,22 +824,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>7,048,692</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>2,380,547</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,653,944</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,421,356</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -902,22 +902,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>17,308,112</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>4,860,665</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>3,407,608</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>2,705,523</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -980,22 +980,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>10,329,146</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>2,328,468</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,270,395</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,236,195</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1058,22 +1058,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>547,881</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>321,740</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>190,753</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>190,966</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1136,42 +1136,42 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>14,943,777</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,462,292</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>826,055</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>734,402</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>990,157</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>2,197,168</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-1,969,033</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>660,111</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1214,22 +1214,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>2,704</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>2,842</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-24,456</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-17,571</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1292,22 +1292,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>4,567,070</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,479,251</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>945,872</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>905,146</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1370,22 +1370,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,832,825</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>194,170</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>6,661</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>36,121</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1448,22 +1448,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>4,253,347</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>994,304</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>662,930</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>769,135</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1526,22 +1526,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>5,263,217</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>616,984</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>242,788</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>141,683</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1604,22 +1604,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>9,447,981</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,386,915</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>912,347</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,217,024</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1682,22 +1682,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>184,291</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>24,815</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-36,520</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-18,471</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1760,22 +1760,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>18,136,039</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>6,718,679</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>494,595</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>517,658</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1838,22 +1838,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>372,692</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>83,257</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-12,343</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-46,692</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1916,22 +1916,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>2,027,185</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>653,396</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>424,674</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>365,017</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1994,22 +1994,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>4,313,741</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,274,661</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>483,779</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>446,177</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -2072,22 +2072,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,154,776</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>278,233</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>21,385</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>21,675</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2150,22 +2150,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>679,208</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-335,710</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-1,390,759</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-1,401,730</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2228,22 +2228,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>443,705</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>129,081</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>34,705</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>54,191</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2306,22 +2306,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>2,557,982</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>449,147</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>266,002</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>248,538</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2384,22 +2384,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>100,072</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>75,813</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>25,496</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>30,437</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2462,22 +2462,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>596,214</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>202,291</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>150,116</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>139,910</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2540,57 +2540,57 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,103,387</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>379,208</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-37,973</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-21,661</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-50,589</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-74,207</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-50,261</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-113,416</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>4,277,333</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-0.57</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2618,22 +2618,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>5,736,746</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>598,403</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>217,606</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>199,222</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2696,22 +2696,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>7,920,383</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>417,187</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-195,965</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>96,015</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2774,22 +2774,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>143</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-50</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-39,862</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-31,678</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2852,22 +2852,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>3,389,000</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-179,444</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-301,902</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-342,930</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2930,22 +2930,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>2,049,205</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>499,624</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>287,507</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>245,682</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -3008,22 +3008,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,220,841</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>156,076</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>20,453</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>44,597</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -3086,22 +3086,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>8,482,561</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,528,657</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>125,484</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>258,480</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -3164,22 +3164,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>206,601</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>22,420</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>13,671</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>35,223</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -3242,22 +3242,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>155,062</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>50,813</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>8,887</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>10,007</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -3320,22 +3320,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>100,324,415</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>12,522,726</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>8,765,688</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>7,593,712</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -3398,22 +3398,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>2,212,074</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>104,579</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>40,274</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,227</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -3476,22 +3476,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>804,860</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>34,897</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>20,944</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-2,973</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -3554,22 +3554,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>390,514</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>216,715</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>36,429</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>28,771</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3632,22 +3632,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>396,265</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>111,102</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>67,708</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>50,393</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -3710,22 +3710,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>246,523</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>23,616</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-6,791</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>2,495</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3788,22 +3788,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>405,047</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>76,351</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>23,903</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>24,226</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3866,22 +3866,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>259,272</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>61,050</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-9,552</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>18,079</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3944,22 +3944,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>213,201</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>3,162</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-106,305</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-84,074</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -4022,22 +4022,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>650,997</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>122,046</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>56,889</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>42,114</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -4100,22 +4100,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>4,911,369</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,560,312</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>148,428</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-179,422</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -4178,22 +4178,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>954,079</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>328,813</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>9,980</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-31,688</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -4256,22 +4256,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>110,357,679</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>37,762,265</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>7,833,751</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>8,649,353</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -4334,22 +4334,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>2,419,781</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>162,562</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-231,905</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-207,004</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -4412,22 +4412,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>2,190,075</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>56,498</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-228,767</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-169,866</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -4490,22 +4490,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>66,462,133</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>5,863,134</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>646,719</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-1,932,970</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -4568,22 +4568,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>24,592,217</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>13,537,402</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>11,510,244</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>11,309,831</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -4646,22 +4646,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>565,960</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>127,874</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>51,266</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>10,822</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -4724,22 +4724,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,079,470,448</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>60,790,576</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>15,840,090</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>17,373,665</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -4802,22 +4802,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>6,763,094</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>584,681</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>394,568</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>285,136</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -4880,22 +4880,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>8,864,156</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>4,714,448</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>840,904</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>261,231</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -4958,22 +4958,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,432,716</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>394,718</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>56,988</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>6,715,696</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -5036,22 +5036,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>175,419</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>22,503</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>7,503</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>35,554</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -5114,22 +5114,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>11,775,746</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>2,078,181</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>683,102</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>666,446</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -5192,22 +5192,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>28,209,200</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>6,559,640</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>2,209,490</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,388,073</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -5270,22 +5270,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>53,658,359</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>20,465,921</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>12,053,284</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>10,063,385</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -5348,22 +5348,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>3,949,758</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>417,728</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-171,074</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-163,458</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -5426,22 +5426,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>34,436</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>22,161</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-7,914</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>3,695</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -5504,22 +5504,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>192,327,540</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>31,519,000</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>28,665,851</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>25,216,070</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -5582,22 +5582,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,859,513</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>698,791</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>99,307</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>106,132</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -5660,22 +5660,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,635,282</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>782,885</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>100,002</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-48,797</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -5738,22 +5738,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>5,806,340</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,257,574</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>401,144</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>590,597</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -5816,22 +5816,22 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>8,082,566</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,460,599</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>415,511</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,840,495</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -5894,22 +5894,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,084,610</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>315,433</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>172,859</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>90,839</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -5972,22 +5972,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>38,287,351</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>108,753</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-1,991,590</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-1,775,903</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -6027,12 +6027,12 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>110,247,027</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>214,028,892</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -6050,22 +6050,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,013,227</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>140,488</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>84,808</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-69,720</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -6128,22 +6128,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>53,938,585</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>12,261,855</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>5,005,221</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>6,710,682</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -6206,22 +6206,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>243,682</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>22,019</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,046</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>10,164</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -6284,22 +6284,22 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>568,634</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>183,690</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>81,472</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>58,741</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -6362,22 +6362,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>38,851,577</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>6,675,175</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>3,181,131</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>2,416,750</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -6440,22 +6440,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>2,691,186</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>519,945</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>307,199</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>265,213</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -6518,22 +6518,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>742,674</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>150,438</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>57,107</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>191,479</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -6596,22 +6596,22 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>5,040,267</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,414,520</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>785,658</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>372,413</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -6674,22 +6674,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>90,569,151</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>3,262,354</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,097,469</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,564,711</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -6714,27 +6714,27 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>95,349,488</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>6,988,545</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>142,666,026</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -6752,22 +6752,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>5,083,700</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>746,233</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>35,996</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>19,580</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -6830,22 +6830,22 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>13,408,395</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,127,364</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>494,736</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>480,693</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -6908,22 +6908,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>7,734,298</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>363,743</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>163,079</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>67,609</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -6986,22 +6986,22 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>691,835</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>293,254</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>77,375</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>54,091</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -7064,22 +7064,22 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>783,531</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>191,177</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-79,343</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-94,012</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -7142,22 +7142,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,689,957</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>568,458</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>193,593</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>575,068</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -7220,22 +7220,22 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>207,915</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>171,060</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-67,022</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-66,072</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -7298,22 +7298,22 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>15,638,939</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>3,813,864</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,790,965</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,583,161</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -7376,22 +7376,22 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>15,196,132</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>3,078,341</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,053,615</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>874,190</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -7454,22 +7454,22 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>12,889,764</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>3,112,288</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>877,468</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,207,724</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -7532,22 +7532,22 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,011,784</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>153,850</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>25,727</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>44,447</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -7610,22 +7610,22 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>6,331,486</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,239,657</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>424,334</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>413,663</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -7688,22 +7688,22 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>237,883,964</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>7,799,272</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>2,624,312</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>2,289,675</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -7766,22 +7766,22 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>90,436,486</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>12,342,454</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>2,883,971</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,656,773</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -7844,22 +7844,22 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>38,068,967</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>4,934,504</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,329,687</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>886,124</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -7922,22 +7922,22 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>12,645,444</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>4,792,472</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,941,451</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,594,639</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -7962,7 +7962,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>18,870,120</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -8000,22 +8000,22 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>14,172,304</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>2,711,920</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>566,478</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>650,229</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -8078,22 +8078,22 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>163,288</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>65,617</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>23,410</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>34,750</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -8156,22 +8156,22 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>2,822,125</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>249,903</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>98,007</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>80,219</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -8234,22 +8234,22 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>237,625</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>189,146</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-33,645</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-48,769</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
